--- a/design/Anexos/Descripcion de Analisis de Elementos Musicales.xlsx
+++ b/design/Anexos/Descripcion de Analisis de Elementos Musicales.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\susan\Documents\kike\Starmony\design\Anexos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F821B8C-83C7-4420-A428-7BFDB5F2651D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61DD82C6-E797-4681-8854-341081EC8504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B2FEE4D1-AFA4-4EFB-93E2-897FBC2F0B34}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Acordes" sheetId="1" r:id="rId1"/>
     <sheet name="Escalas" sheetId="2" r:id="rId2"/>
     <sheet name="Armonias" sheetId="3" r:id="rId3"/>
+    <sheet name="Intervalos" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="150">
   <si>
     <t>Notas</t>
   </si>
@@ -56,12 +57,6 @@
     <t>x</t>
   </si>
   <si>
-    <t>Principal</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Auxiliar</t>
-  </si>
-  <si>
     <t>Obtener de Starmonydb</t>
   </si>
   <si>
@@ -110,9 +105,6 @@
     <t>Obtener Grados Concretos</t>
   </si>
   <si>
-    <t>Generar Elementos Musicales Basico</t>
-  </si>
-  <si>
     <t>Obtener Escalas</t>
   </si>
   <si>
@@ -182,19 +174,319 @@
     <t>Obtener Armonias</t>
   </si>
   <si>
-    <t>Obtener Intervalos y Grados Concretos y Armonias</t>
-  </si>
-  <si>
-    <t>Obtener Grados Concretos y Armonias</t>
-  </si>
-  <si>
-    <t>Obtener Grados y Armonias</t>
-  </si>
-  <si>
     <t>Descripcion</t>
   </si>
   <si>
-    <t>Obtener los Acordes que tengan los Intervalos con las Notas de entrada de la base de datos Starmonydb</t>
+    <t>Obtener los Grados que tengan las Escalas</t>
+  </si>
+  <si>
+    <t>Obtener los Acordes que contengan los Intervalos dados</t>
+  </si>
+  <si>
+    <t>Obtener los Grados que contengan los Intervalos dados</t>
+  </si>
+  <si>
+    <t>Obtener las variantes de los acordes dados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">obtener los grados de las armonias </t>
+  </si>
+  <si>
+    <t>Obtener los Grados concretos de la escala</t>
+  </si>
+  <si>
+    <t>Obtener los Acordes concretos que contengan los intervalos dados</t>
+  </si>
+  <si>
+    <t>Obtener las variantes concretas del acorde dado</t>
+  </si>
+  <si>
+    <t>Obtener los Grados concretos de la armonia</t>
+  </si>
+  <si>
+    <t>Obtener los Grados concretos de la escala que contengan los intervalos dados</t>
+  </si>
+  <si>
+    <t>Obtener los Grados de la escala que contengan los Acordes dados</t>
+  </si>
+  <si>
+    <t>Obtener los solo los Grados de la Escala con esa Armonia</t>
+  </si>
+  <si>
+    <t>Obtener los Grados de la armonia que contengan el Acorde dado</t>
+  </si>
+  <si>
+    <t>Obtener los Grados concretos de la Escala que contengan los Acordes dados</t>
+  </si>
+  <si>
+    <t>Obtener los Grados concretos de la Armonia en la Escala dada</t>
+  </si>
+  <si>
+    <t>Obtener los Grados concretos de la Armonia que contengan los Intervalos dados</t>
+  </si>
+  <si>
+    <t>Obtener los Grados concretos de la Armonia que contengan los Acordes dados</t>
+  </si>
+  <si>
+    <t>Obtener los Grados de la Escala que contenga los Acordes dados</t>
+  </si>
+  <si>
+    <t>Obtener los Grados de la Escala que contengan los Intervalos y Armonias dadas</t>
+  </si>
+  <si>
+    <t>Obtener los Grados de la Armonia que en la Escala dada que contenga los Acordes dados</t>
+  </si>
+  <si>
+    <t>Obtener los Grados concretos que contengan los Intervalos y Acordes dados</t>
+  </si>
+  <si>
+    <t>Obtener los Grados de la Armonia en la Escala que contenga los Intervalos dados</t>
+  </si>
+  <si>
+    <t>Obtener los Grados concretos de la Armonia en la Escala que contenga los Intervalos dados</t>
+  </si>
+  <si>
+    <t>Obtener los Grados concretos de la Armonia en la Escala que contenga los Acordes dados</t>
+  </si>
+  <si>
+    <t>Obtener los Grados de la Armonia en la Escala que contenga los Intervalos y Acordes dados</t>
+  </si>
+  <si>
+    <t>Obtener los Grados concretos de la Escala que contenga los Intervalos y Acordes dados</t>
+  </si>
+  <si>
+    <t>Obtener los Acordes que tengan los Intervalos con las Notas de entrada</t>
+  </si>
+  <si>
+    <t>Obtener Escalas concretas que contengan las notas dadas</t>
+  </si>
+  <si>
+    <t>Obtener variantes de la Escala dada</t>
+  </si>
+  <si>
+    <t>Obtener Escalas que contengan Grados con los Intervalos dados</t>
+  </si>
+  <si>
+    <t>Obtener Escalas cuyos Grados contengan los Acordes dados</t>
+  </si>
+  <si>
+    <t>Obtener Escalas concretas que tengan las Notas dadas</t>
+  </si>
+  <si>
+    <t>Obtener Escalas concretas cuyos Grados contengan los Intervalos dados</t>
+  </si>
+  <si>
+    <t>Obtener Escalas concretas cuyos Grados contengan los Acordes dados</t>
+  </si>
+  <si>
+    <t>Obtener Escalas concretas cuyos Grados contengan los Acordes de la Armonia dada</t>
+  </si>
+  <si>
+    <t>Obtener Escalas cuyos Grados contengan los Acordes de la Armonia dada</t>
+  </si>
+  <si>
+    <t>Obtener Escalas que contengan Grados con los Acordes dados</t>
+  </si>
+  <si>
+    <t>Obtener Escalas que contengan Grados con los Acordes de la Armonia dada</t>
+  </si>
+  <si>
+    <t>Obtener Escalas que contengan Grados con los Acordes con los Intervalos dados</t>
+  </si>
+  <si>
+    <t>Obtener Escalas concretas que contengan Grados con los Intervalos dados</t>
+  </si>
+  <si>
+    <t>Obtener Escalas concretas que contengan Grados con los Acordes dados</t>
+  </si>
+  <si>
+    <t>Obtener Escalas concretas que contengan Grados con los Acordes de la Armonia dada</t>
+  </si>
+  <si>
+    <t>Obtener Escalas concretas que contengan Grados con Acordes e Intervalos dados</t>
+  </si>
+  <si>
+    <t>Obtener Escalas concretas que contengan Grados con Acordes de la Armonia dada</t>
+  </si>
+  <si>
+    <t>Obtener Escalas que contengan Grados con los Acordes e Intervalos dados</t>
+  </si>
+  <si>
+    <t>Obtener Escalas que contengan Grados con los Acordes e Intervalos de la Armonia dada</t>
+  </si>
+  <si>
+    <t>Obtener Escalas concretas que contengan Grados con los Acordes e Intervalos dados</t>
+  </si>
+  <si>
+    <t>Obtener Escalas concretas que contengan Grados con los Acordes e intervalos de la Armonia dada</t>
+  </si>
+  <si>
+    <t>Obtener Escalas que contengan Grados con los  Acordes e Intervalos de la Armonia dada</t>
+  </si>
+  <si>
+    <t>Obtener Escalas concretas que contengan Grados con los Acordes e Intervalos de la Armonia dada</t>
+  </si>
+  <si>
+    <t>Obtener Armonias Concretas</t>
+  </si>
+  <si>
+    <t>Obtener Grados concretos</t>
+  </si>
+  <si>
+    <t>Obtener Armonias concretas</t>
+  </si>
+  <si>
+    <t>Obtener las Armonias concretas que contengan las Notas dadas</t>
+  </si>
+  <si>
+    <t>Obtener los Grados de la Escala dada</t>
+  </si>
+  <si>
+    <t>Obtener los Grados que contengan los Acordes dados</t>
+  </si>
+  <si>
+    <t>Obtener las Variantes de la Armonia dada</t>
+  </si>
+  <si>
+    <t>Obtener las Armonias concretas que contengan las Escalas dadas</t>
+  </si>
+  <si>
+    <t>Obtener los Grados concretos que contengan los Acordes dados</t>
+  </si>
+  <si>
+    <t>Obtener los Grados concretos que contengan los Intervalos dados</t>
+  </si>
+  <si>
+    <t>Obtener las Armonias que contengan la Escalas dadas</t>
+  </si>
+  <si>
+    <t>Obtener las Armonias que contengan los Acordes dados</t>
+  </si>
+  <si>
+    <t>Obtener las Armonias que contengan los Intervalos dados</t>
+  </si>
+  <si>
+    <t>Obtener los Grados concretos que contengan las Escalas con los Acordes dados</t>
+  </si>
+  <si>
+    <t>Obtener los Grados concretos que contenga las Escalas con los Intervalos dados</t>
+  </si>
+  <si>
+    <t>Obtener las Armonias concretas que contengan los Acordes con los Intervalos dados</t>
+  </si>
+  <si>
+    <t>Obtener los Grados concretos que contengan los Acordes con los Intervalos dados</t>
+  </si>
+  <si>
+    <t>Obtener las Armonias concretas que contengan los Intervalos dados</t>
+  </si>
+  <si>
+    <t>Obtener las Armonias concretas que contengan los Acordes dados</t>
+  </si>
+  <si>
+    <t>Obtener los Grados que contengan las Escalas con los Acordes con los Intervalos dados</t>
+  </si>
+  <si>
+    <t>Obtener las Armonias que contengan las Escalas con los Intervalos dados</t>
+  </si>
+  <si>
+    <t>Obtener las Armonias que contengan los Acordes con los Intervalos dados</t>
+  </si>
+  <si>
+    <t>Obtener las Armonias que contengan las Escalas con los Acordes con los Intervalos dados</t>
+  </si>
+  <si>
+    <t>Obtener los Grados concretos que contengan las Escalas con los Intervalos dados</t>
+  </si>
+  <si>
+    <t>Obtener las Armonias concretas que contengan las Escalas con los Intervalos dados</t>
+  </si>
+  <si>
+    <t>Obtener las Armonias concretas que contengan las Escalas con los Acordes dados</t>
+  </si>
+  <si>
+    <t>Obtener las Armonias concretas que contengan las Escalas Con los Acordes con los Intervalos dados</t>
+  </si>
+  <si>
+    <t>(Por hacer)</t>
+  </si>
+  <si>
+    <t>Obtener los Intervalos</t>
+  </si>
+  <si>
+    <t>Obtener los Grados y/o Intervalos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obtener Variantes </t>
+  </si>
+  <si>
+    <t>Obtener Intervalos</t>
+  </si>
+  <si>
+    <t>Obtener Grados y/o Intervalos</t>
+  </si>
+  <si>
+    <t>Obtener Grados concretos y/o Intervalos concretos</t>
+  </si>
+  <si>
+    <t>Obtener Intervalos concretos</t>
+  </si>
+  <si>
+    <t>Obtener los Intervalos entre las Notas dadas</t>
+  </si>
+  <si>
+    <t>Obtener los Intervalos de los Grados de las Escalas dadas</t>
+  </si>
+  <si>
+    <t>Obtener las Variantes de los Intervalos dados</t>
+  </si>
+  <si>
+    <t>Obtener los Intervalos de los Acordes dados</t>
+  </si>
+  <si>
+    <t>Obtener los Intervalos concretos de los Acordes dados</t>
+  </si>
+  <si>
+    <t>Obtener los Intervalos concretos con las Notas dadas</t>
+  </si>
+  <si>
+    <t>Obtener los Intervalos de los Grados de las Armonias dadas</t>
+  </si>
+  <si>
+    <t>Obtener los Intervaos de los Acordes dados</t>
+  </si>
+  <si>
+    <t>Obtener los Intervalos de los Grados de las Escalas y Armonias dadas</t>
+  </si>
+  <si>
+    <t>Obtener los Intervalos de los Grados de las Escalas con los Acordes dados</t>
+  </si>
+  <si>
+    <t>Obtener los Intervalos concretos de los Grados de las Escalas dadas</t>
+  </si>
+  <si>
+    <t>Obtener los Intervalos de los Grados de las Armonias con los Acordes dados</t>
+  </si>
+  <si>
+    <t>Obtener los Intervalos concretos de los Grados de las Escalas y Armonias dadas</t>
+  </si>
+  <si>
+    <t>Obtener los Intervalos concretos de los Grados de las Escalas con los Acordes dados</t>
+  </si>
+  <si>
+    <t>Obtener los Intervalos concretos de los Grados de las Armonias dadas</t>
+  </si>
+  <si>
+    <t>Obtener los Intervalos concretos de los Grados de las Armonias con los Acordes dados</t>
+  </si>
+  <si>
+    <t>Obtener los Intervalos de los Grados de las Escalas y Armonias con los Acordes dados</t>
+  </si>
+  <si>
+    <t>Obtener los Intervalos concretos de los Grados de las Escalas y Armonias con los Acordes dados</t>
+  </si>
+  <si>
+    <t>Generar Elementos Musicales</t>
   </si>
 </sst>
 </file>
@@ -217,7 +509,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -245,6 +537,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF99FF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCECFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -296,7 +594,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -313,12 +611,14 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -327,6 +627,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFCCECFF"/>
       <color rgb="FFCCCCFF"/>
       <color rgb="FFFF9999"/>
       <color rgb="FF99FF99"/>
@@ -641,20 +942,901 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{277DE5F6-BC89-44C4-9115-7D2BA92E9D35}">
-  <dimension ref="A1:I1048575"/>
+  <dimension ref="A1:J1048575"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
+      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="11.42578125" style="1"/>
-    <col min="6" max="6" width="43.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="94.5703125" customWidth="1"/>
-    <col min="9" max="9" width="80.28515625" customWidth="1"/>
+    <col min="6" max="6" width="47.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="81.5703125" customWidth="1"/>
+    <col min="8" max="8" width="3.5703125" customWidth="1"/>
+    <col min="9" max="9" width="63" style="1" customWidth="1"/>
+    <col min="10" max="10" width="79.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="5"/>
+      <c r="F23" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="5"/>
+      <c r="F27" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F34" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I34" s="7"/>
+    </row>
+    <row r="35" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F35" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F36" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F37" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F38" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F39" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F40" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F41"/>
+      <c r="I41" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F42"/>
+      <c r="I42" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F43"/>
+      <c r="I43" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F44"/>
+      <c r="I44" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F45"/>
+      <c r="I45" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="46" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F46"/>
+      <c r="I46" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F47"/>
+      <c r="I47" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="48" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F48"/>
+      <c r="I48"/>
+    </row>
+    <row r="49" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F49"/>
+      <c r="I49"/>
+    </row>
+    <row r="50" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F50"/>
+      <c r="I50"/>
+    </row>
+    <row r="51" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F51"/>
+      <c r="I51"/>
+    </row>
+    <row r="52" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F52"/>
+      <c r="I52"/>
+    </row>
+    <row r="53" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F53"/>
+      <c r="I53"/>
+    </row>
+    <row r="54" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F54"/>
+      <c r="I54"/>
+    </row>
+    <row r="55" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F55"/>
+      <c r="I55"/>
+    </row>
+    <row r="56" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F56"/>
+      <c r="I56"/>
+    </row>
+    <row r="57" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F57"/>
+      <c r="I57"/>
+    </row>
+    <row r="58" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F58"/>
+      <c r="I58"/>
+    </row>
+    <row r="59" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F59"/>
+      <c r="I59"/>
+    </row>
+    <row r="60" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F60"/>
+      <c r="I60"/>
+    </row>
+    <row r="61" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F61"/>
+      <c r="I61"/>
+    </row>
+    <row r="62" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F62"/>
+      <c r="I62"/>
+    </row>
+    <row r="63" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F63"/>
+      <c r="I63"/>
+    </row>
+    <row r="64" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F64"/>
+      <c r="I64"/>
+    </row>
+    <row r="65" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F65"/>
+      <c r="I65"/>
+    </row>
+    <row r="1048575" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1048575" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2C2EF1C-C1C2-48CC-8B93-9C9D881E877F}">
+  <dimension ref="A1:I42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="43.85546875" customWidth="1"/>
+    <col min="7" max="7" width="91.85546875" customWidth="1"/>
+    <col min="8" max="8" width="7.85546875" customWidth="1"/>
+    <col min="9" max="9" width="47.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -674,15 +1856,14 @@
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="I1" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -693,15 +1874,14 @@
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I2" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
@@ -712,10 +1892,13 @@
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="4" t="s">
         <v>12</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -727,13 +1910,16 @@
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -742,10 +1928,13 @@
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -757,10 +1946,13 @@
         <v>5</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>12</v>
+        <v>24</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -776,8 +1968,11 @@
       <c r="F7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>46</v>
+      <c r="G7" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -791,10 +1986,13 @@
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>15</v>
+        <v>25</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -808,10 +2006,13 @@
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>15</v>
+        <v>23</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -825,10 +2026,13 @@
         <v>5</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>41</v>
+        <v>26</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -842,10 +2046,13 @@
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>38</v>
+        <v>22</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -859,10 +2066,13 @@
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>12</v>
+        <v>22</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -876,10 +2086,13 @@
         <v>5</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>12</v>
+        <v>22</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -893,10 +2106,13 @@
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>10</v>
+        <v>24</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -910,10 +2126,13 @@
         <v>5</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>39</v>
+        <v>24</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -927,13 +2146,16 @@
         <v>5</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>5</v>
       </c>
@@ -948,11 +2170,14 @@
       <c r="F17" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G17" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G17" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>5</v>
       </c>
@@ -967,11 +2192,14 @@
       <c r="F18" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G18" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G18" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>5</v>
       </c>
@@ -986,11 +2214,14 @@
       <c r="F19" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G19" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G19" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>5</v>
       </c>
@@ -1003,13 +2234,16 @@
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>5</v>
       </c>
@@ -1022,13 +2256,16 @@
         <v>5</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>5</v>
       </c>
@@ -1041,13 +2278,16 @@
         <v>5</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
       <c r="B23" s="5" t="s">
         <v>5</v>
@@ -1060,13 +2300,16 @@
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="5" t="s">
         <v>5</v>
@@ -1079,13 +2322,16 @@
         <v>5</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="5" t="s">
         <v>5</v>
@@ -1098,13 +2344,16 @@
         <v>5</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5" t="s">
@@ -1117,13 +2366,16 @@
         <v>5</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>5</v>
       </c>
@@ -1140,11 +2392,14 @@
       <c r="F27" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G27" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G27" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>5</v>
       </c>
@@ -1161,11 +2416,14 @@
       <c r="F28" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G28" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G28" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>5</v>
       </c>
@@ -1182,11 +2440,14 @@
       <c r="F29" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G29" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G29" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>5</v>
       </c>
@@ -1201,13 +2462,16 @@
         <v>5</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
       <c r="B31" s="5" t="s">
         <v>5</v>
@@ -1222,13 +2486,16 @@
         <v>5</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>5</v>
       </c>
@@ -1247,878 +2514,98 @@
       <c r="F32" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G32" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F34" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G34" s="6"/>
-    </row>
-    <row r="35" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="G32" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F34" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I34" s="7"/>
+    </row>
+    <row r="35" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F35" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="36" spans="6:7" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F36" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G36" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="37" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="I36" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F37" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="6:7" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F38" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="39" spans="6:7" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F39" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="40" spans="6:7" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F40" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="41" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F41"/>
-      <c r="G41" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="42" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F42"/>
-      <c r="G42" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="43" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F43"/>
-      <c r="G43" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="44" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F44"/>
-      <c r="G44" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="45" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F45"/>
-      <c r="G45" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="46" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F46"/>
-      <c r="G46" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="47" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F47"/>
-      <c r="G47" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="48" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F48"/>
-      <c r="G48"/>
-    </row>
-    <row r="49" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F49"/>
-      <c r="G49"/>
-    </row>
-    <row r="50" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F50"/>
-      <c r="G50"/>
-    </row>
-    <row r="51" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F51"/>
-      <c r="G51"/>
-    </row>
-    <row r="52" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F52"/>
-      <c r="G52"/>
-    </row>
-    <row r="53" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F53"/>
-      <c r="G53"/>
-    </row>
-    <row r="54" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F54"/>
-      <c r="G54"/>
-    </row>
-    <row r="55" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F55"/>
-      <c r="G55"/>
-    </row>
-    <row r="56" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F56"/>
-      <c r="G56"/>
-    </row>
-    <row r="57" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F57"/>
-      <c r="G57"/>
-    </row>
-    <row r="58" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F58"/>
-      <c r="G58"/>
-    </row>
-    <row r="59" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F59"/>
-      <c r="G59"/>
-    </row>
-    <row r="60" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F60"/>
-      <c r="G60"/>
-    </row>
-    <row r="61" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F61"/>
-      <c r="G61"/>
-    </row>
-    <row r="62" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F62"/>
-      <c r="G62"/>
-    </row>
-    <row r="63" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F63"/>
-      <c r="G63"/>
-    </row>
-    <row r="64" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F64"/>
-      <c r="G64"/>
-    </row>
-    <row r="65" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F65"/>
-      <c r="G65"/>
-    </row>
-    <row r="1048575" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F1048575" s="3" t="s">
-        <v>8</v>
+        <v>22</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="I41" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="I42" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="F34:G34"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2C2EF1C-C1C2-48CC-8B93-9C9D881E877F}">
-  <dimension ref="A1:G42"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="6" max="6" width="43.85546875" customWidth="1"/>
-    <col min="7" max="7" width="74.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E23" s="5"/>
-      <c r="F23" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E27" s="5"/>
-      <c r="F27" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="34" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F34" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G34" s="6"/>
-    </row>
-    <row r="35" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F35" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="36" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F36" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="37" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F37" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="38" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F38" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="39" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F39" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="40" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F40" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="41" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="G41" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="42" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="G42" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="F34:G34"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F3424A3-5E02-4081-BF1D-2C46A8B8CA3A}">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="62.140625" customWidth="1"/>
-    <col min="7" max="7" width="47.28515625" customWidth="1"/>
+    <col min="6" max="6" width="43.85546875" customWidth="1"/>
+    <col min="7" max="7" width="91.85546875" customWidth="1"/>
+    <col min="9" max="9" width="47.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2135,13 +2622,16 @@
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
@@ -2150,11 +2640,16 @@
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G2" s="4"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="5" t="s">
         <v>5</v>
@@ -2163,11 +2658,14 @@
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G3" s="4"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="I3" s="4"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5" t="s">
@@ -2176,11 +2674,14 @@
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G4" s="4"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -2189,11 +2690,14 @@
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G5" s="4"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -2202,11 +2706,14 @@
         <v>5</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="4"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="I6" s="4"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -2217,11 +2724,14 @@
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>5</v>
       </c>
@@ -2232,11 +2742,14 @@
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G8" s="4"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>5</v>
       </c>
@@ -2247,11 +2760,14 @@
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>5</v>
       </c>
@@ -2262,11 +2778,14 @@
         <v>5</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G10" s="4"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="I10" s="4"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="5" t="s">
         <v>5</v>
@@ -2276,10 +2795,15 @@
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="4"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="I11" s="4"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="5" t="s">
         <v>5</v>
@@ -2289,10 +2813,15 @@
         <v>5</v>
       </c>
       <c r="E12" s="5"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="4"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="I12" s="4"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="5" t="s">
         <v>5</v>
@@ -2302,10 +2831,15 @@
       <c r="E13" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="4"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F13" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="I13" s="4"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5" t="s">
@@ -2315,10 +2849,15 @@
         <v>5</v>
       </c>
       <c r="E14" s="5"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="4"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="I14" s="4"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5" t="s">
@@ -2328,10 +2867,15 @@
       <c r="E15" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="4"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F15" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="I15" s="4"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -2341,10 +2885,15 @@
       <c r="E16" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="4"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F16" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="I16" s="4"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>5</v>
       </c>
@@ -2356,10 +2905,15 @@
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="4"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F17" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="I17" s="4"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>5</v>
       </c>
@@ -2371,10 +2925,15 @@
         <v>5</v>
       </c>
       <c r="E18" s="5"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="4"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F18" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="I18" s="4"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>5</v>
       </c>
@@ -2386,10 +2945,15 @@
       <c r="E19" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="4"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F19" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="I19" s="4"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>5</v>
       </c>
@@ -2401,10 +2965,15 @@
         <v>5</v>
       </c>
       <c r="E20" s="5"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="4"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F20" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="I20" s="4"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>5</v>
       </c>
@@ -2416,10 +2985,15 @@
       <c r="E21" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F21" s="3"/>
-      <c r="G21" s="4"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F21" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="I21" s="4"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>5</v>
       </c>
@@ -2431,10 +3005,15 @@
       <c r="E22" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F22" s="3"/>
-      <c r="G22" s="4"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F22" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="I22" s="4"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
       <c r="B23" s="5" t="s">
         <v>5</v>
@@ -2446,10 +3025,15 @@
         <v>5</v>
       </c>
       <c r="E23" s="5"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="4"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F23" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="I23" s="4"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="5" t="s">
         <v>5</v>
@@ -2461,10 +3045,15 @@
       <c r="E24" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F24" s="3"/>
-      <c r="G24" s="4"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F24" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="I24" s="4"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="5" t="s">
         <v>5</v>
@@ -2476,10 +3065,15 @@
       <c r="E25" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F25" s="3"/>
-      <c r="G25" s="4"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F25" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="I25" s="4"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5" t="s">
@@ -2491,10 +3085,15 @@
       <c r="E26" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F26" s="3"/>
-      <c r="G26" s="4"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F26" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="I26" s="4"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>5</v>
       </c>
@@ -2508,10 +3107,15 @@
         <v>5</v>
       </c>
       <c r="E27" s="5"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="4"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F27" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="I27" s="4"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>5</v>
       </c>
@@ -2525,10 +3129,15 @@
       <c r="E28" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F28" s="3"/>
-      <c r="G28" s="4"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F28" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="I28" s="4"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>5</v>
       </c>
@@ -2542,10 +3151,15 @@
       <c r="E29" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F29" s="3"/>
-      <c r="G29" s="4"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F29" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="I29" s="4"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>5</v>
       </c>
@@ -2559,10 +3173,15 @@
       <c r="E30" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F30" s="3"/>
-      <c r="G30" s="4"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F30" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="I30" s="4"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
       <c r="B31" s="5" t="s">
         <v>5</v>
@@ -2576,10 +3195,15 @@
       <c r="E31" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F31" s="3"/>
-      <c r="G31" s="4"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F31" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="I31" s="4"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>5</v>
       </c>
@@ -2595,8 +3219,768 @@
       <c r="E32" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F32" s="3"/>
-      <c r="G32" s="4"/>
+      <c r="F32" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="I32" s="4"/>
+    </row>
+    <row r="34" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F34" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I34" s="7"/>
+    </row>
+    <row r="35" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F35" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="36" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F36" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I36" s="4"/>
+    </row>
+    <row r="37" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F37" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I37" s="4"/>
+    </row>
+    <row r="38" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F38" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="I38" s="4"/>
+    </row>
+    <row r="39" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F39" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I39" s="4"/>
+    </row>
+    <row r="40" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="I40" s="4"/>
+    </row>
+    <row r="41" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="I41" s="4"/>
+    </row>
+    <row r="42" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="I42" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED132284-9EE3-44C9-A730-A16448BB2892}">
+  <dimension ref="A1:I42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="50.7109375" customWidth="1"/>
+    <col min="7" max="7" width="85" customWidth="1"/>
+    <col min="9" max="9" width="47.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="I3" s="4"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="I6" s="4"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="I10" s="4"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="I11" s="4"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="I12" s="4"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="I13" s="4"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="I14" s="4"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="I15" s="4"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="I16" s="4"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="I17" s="4"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="I18" s="4"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="I19" s="4"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="I20" s="4"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="I21" s="4"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="I22" s="4"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="5"/>
+      <c r="F23" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="I23" s="4"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="I24" s="4"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="I25" s="4"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="I26" s="4"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="5"/>
+      <c r="F27" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="I27" s="4"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="I28" s="4"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="I29" s="4"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="I30" s="4"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="I31" s="4"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="I32" s="4"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I34" s="7"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F35" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F36" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="I36" s="4"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F37" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="I37" s="4"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F38" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="I38" s="4"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F39" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="I39" s="4"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F40" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="I40" s="4"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F41" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="I41" s="4"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I42" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
